--- a/User/SangND/Mô tả màn hình.xlsx
+++ b/User/SangND/Mô tả màn hình.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="7290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BookingPage" sheetId="1" r:id="rId1"/>
     <sheet name="ComfirmPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BookingPage!$A$1:$Y$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ComfirmPage!$A$1:$AA$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BookingPage!$A$1:$Y$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ComfirmPage!$A$1:$AD$82</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>Booking Page</t>
   </si>
@@ -143,13 +143,234 @@
   </si>
   <si>
     <t>Sau khi Bảo Kim báo về thanh toán thành công thì hiển thị thông báo cho khách hàng.</t>
+  </si>
+  <si>
+    <t>Nationality: tbl_guest-&gt;country</t>
+  </si>
+  <si>
+    <t>Address:  tbl_guest-&gt;address</t>
+  </si>
+  <si>
+    <t>Identity: tbl_guest-&gt;identity_card</t>
+  </si>
+  <si>
+    <t>Phone:  tbl_guest-&gt;phone</t>
+  </si>
+  <si>
+    <t>Email:  tbl_guest-&gt;mail</t>
+  </si>
+  <si>
+    <t>Full name :  tbl_guest -&gt; name</t>
+  </si>
+  <si>
+    <t>Special request: tbl_reservation-&gt;note</t>
+  </si>
+  <si>
+    <t>INSERT DATABASE</t>
+  </si>
+  <si>
+    <t>tbl_guest:</t>
+  </si>
+  <si>
+    <t>tbl_reservation:</t>
+  </si>
+  <si>
+    <t>tbl_reservation-&gt;check_in</t>
+  </si>
+  <si>
+    <t>tbl_reservation-&gt;check_out</t>
+  </si>
+  <si>
+    <t>tbl_reservation-&gt;number_of_adult</t>
+  </si>
+  <si>
+    <t>tbl_reservation-&gt;number_of_children</t>
+  </si>
+  <si>
+    <t>tbl_reservation-&gt;number_of_room</t>
+  </si>
+  <si>
+    <t>(format yyyymmdd)</t>
+  </si>
+  <si>
+    <t>tbl_reservation-&gt;guest_id</t>
+  </si>
+  <si>
+    <t>(lấy guest_id từ bản ghi insert vào tbl_guest bên trên)</t>
+  </si>
+  <si>
+    <t>tbl_reservation-&gt;status_id ("RS01")</t>
+  </si>
+  <si>
+    <t>tbl_reservation-&gt;create_ymd (now())</t>
+  </si>
+  <si>
+    <t>tbl_reservation_detail:</t>
+  </si>
+  <si>
+    <t>tbl_reservation_detail-&gt;reservation_id</t>
+  </si>
+  <si>
+    <t>tbl_reservation_detail-&gt;room_id</t>
+  </si>
+  <si>
+    <t>tbl_reservation_detail-&gt;create_ymd (now())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ: người dùng chọn 2/4 phòng Single còn trống,  </t>
+  </si>
+  <si>
+    <t>DB đang có các phòng 4 Single sau còn trống: 101,102,201,202</t>
+  </si>
+  <si>
+    <t>hệ thống sẽ auto xếp lần lượt từ 101,102 cho khách</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chú ý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: khi book phòng hệ thống sẽ tự tìm số phòng trong DB tương ứng với Kiểu Phòng đã chọn để insert vào tbl_reservation_detail </t>
+    </r>
+  </si>
+  <si>
+    <t>xem chú ý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         GROUP BY rt.room_type_id , rt.type_name, rt.price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ORDER BY rt.type_name ASC</t>
+  </si>
+  <si>
+    <t>SELECT rt.room_type_id , rt.type_name, rt.price , COUNT(rt.type_name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM tbl_room ro join tbl_room_type rt ON ro.room_type_id = rt.room_type_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE ro.status_id = 'RO01' AND  ro.room_id NOT IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(SELECT rd.room_id from tbl_reservation r JOIN tbl_reservation_detail rd ON r.id = rd.reservation_id </t>
+  </si>
+  <si>
+    <t>SQL select số kiểu phòng trống (đang dùng cho chức năng book offline )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> WHERE  ((r.check_in BETWEEN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check_in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check_out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         OR (r.check_out BETWEEN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check_in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check_out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">))) </t>
+    </r>
+  </si>
+  <si>
+    <t>book bao nhiêu phòng thì insert bấy nhiêu lần</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +388,21 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,8 +490,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,10 +511,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,20 +1189,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>530678</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18710</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>132670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>141174</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -983,8 +1221,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="530678" y="285751"/>
-          <a:ext cx="6858000" cy="5600700"/>
+          <a:off x="625929" y="323170"/>
+          <a:ext cx="6801870" cy="6067425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,15 +1301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>112258</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>69282</xdr:rowOff>
+      <xdr:colOff>207508</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76541</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>116907</xdr:rowOff>
+      <xdr:colOff>171791</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184943</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1080,7 +1318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5623151" y="640782"/>
+          <a:off x="5718401" y="327818"/>
           <a:ext cx="576604" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1130,14 +1368,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>543607</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>557214</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>187664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>507889</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>521496</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>44789</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1147,7 +1385,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2992893" y="3045164"/>
+          <a:off x="3006500" y="2854664"/>
           <a:ext cx="576603" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1197,15 +1435,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>546330</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>117246</xdr:rowOff>
+      <xdr:colOff>573544</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>510611</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>164871</xdr:rowOff>
+      <xdr:colOff>537825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>178478</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1214,7 +1452,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2995616" y="3736746"/>
+          <a:off x="3022830" y="3940853"/>
           <a:ext cx="576602" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1263,16 +1501,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>460605</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106819</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>68037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>424886</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>41726</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71101</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1281,8 +1519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6583819" y="2911929"/>
-          <a:ext cx="576603" cy="558797"/>
+          <a:off x="6842355" y="2925537"/>
+          <a:ext cx="576603" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1331,15 +1569,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>357871</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1925</xdr:rowOff>
+      <xdr:colOff>412300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>322152</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>49550</xdr:rowOff>
+      <xdr:colOff>376581</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>185621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1348,7 +1586,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5256442" y="4764425"/>
+          <a:off x="5310871" y="5090996"/>
           <a:ext cx="576603" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1398,15 +1636,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>520475</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>23356</xdr:rowOff>
+      <xdr:colOff>602118</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>484758</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>70981</xdr:rowOff>
+      <xdr:colOff>566401</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1415,8 +1653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2969761" y="5357356"/>
-          <a:ext cx="576604" cy="428625"/>
+          <a:off x="3030993" y="5670322"/>
+          <a:ext cx="571502" cy="389960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1731,340 +1969,383 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="M5:W33"/>
+  <dimension ref="B5:W42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="8" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
     </row>
     <row r="9" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N10" s="7"/>
-      <c r="O10" s="7" t="s">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
     </row>
     <row r="11" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N11" s="7"/>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
     </row>
     <row r="12" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
     </row>
     <row r="13" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
     <row r="14" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N15" s="7"/>
-      <c r="O15" s="7" t="s">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N16" s="7"/>
-      <c r="O16" s="7" t="s">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
     <row r="18" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N20" s="7"/>
-      <c r="O20" s="7" t="s">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
     </row>
     <row r="22" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
     </row>
     <row r="23" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
     </row>
     <row r="24" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
     </row>
     <row r="26" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
     </row>
     <row r="27" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
     </row>
     <row r="28" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
     <row r="29" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
     </row>
     <row r="31" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
       <c r="N33" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2082,10 +2363,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="L3:W32"/>
+  <dimension ref="L3:W57"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,339 +2405,541 @@
       </c>
     </row>
     <row r="8" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7" t="s">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
     </row>
     <row r="9" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7" t="s">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
     </row>
     <row r="11" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7" t="s">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
     </row>
     <row r="12" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
     </row>
     <row r="13" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="N13" s="7"/>
-      <c r="O13" s="7" t="s">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
     <row r="14" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7" t="s">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="N16" s="7"/>
-      <c r="O16" s="7" t="s">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
     <row r="18" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N21" s="7"/>
-      <c r="O21" s="7" t="s">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-    </row>
-    <row r="22" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-    </row>
-    <row r="23" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N23" s="7"/>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-    </row>
-    <row r="24" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7" t="s">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-    </row>
-    <row r="25" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-    </row>
-    <row r="26" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N26" s="7"/>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N28" s="1"/>
+      <c r="O28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-    </row>
-    <row r="27" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-    </row>
-    <row r="28" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
     <row r="29" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
     </row>
     <row r="30" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
     </row>
     <row r="31" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="1"/>
     </row>
     <row r="32" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N33" s="1"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N34" s="1"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="P39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="P40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="P41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="P42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>48</v>
+      </c>
+      <c r="S45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>49</v>
+      </c>
+      <c r="S46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>54</v>
+      </c>
+      <c r="T50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>58</v>
+      </c>
+      <c r="R54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>60</v>
+      </c>
+      <c r="U56" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="N3:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="36" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="32" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>